--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>&lt;2 months</t>
   </si>
@@ -65,16 +65,13 @@
     <t>60-64 years</t>
   </si>
   <si>
-    <t>65+</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>txcurr</t>
@@ -419,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,10 +424,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" t="s"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,111 +479,114 @@
       <c r="AH2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="AI2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -619,9 +619,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>&lt;2 months</t>
   </si>
@@ -65,13 +65,16 @@
     <t>60-64 years</t>
   </si>
   <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>Gender</t>
   </si>
   <si>
     <t>txcurr</t>
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,10 +427,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:34">
       <c r="A1" t="s"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:34">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,114 +482,111 @@
       <c r="AH2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" t="s">
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -618,10 +618,13 @@
       <c r="K4" t="n">
         <v>1</v>
       </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -652,6 +655,9 @@
       </c>
       <c r="K5" t="n">
         <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,10 +427,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" t="s"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -583,8 +583,14 @@
       <c r="AG3" t="s">
         <v>19</v>
       </c>
+      <c r="AH3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -622,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>21</v>
       </c>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,10 +427,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:37">
       <c r="A1" t="s"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:37">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -589,8 +589,14 @@
       <c r="AI3" t="s">
         <v>19</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -628,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -667,7 +673,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -685,6 +691,7 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>&lt;2 months</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>65+</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Gender</t>
@@ -482,123 +485,126 @@
       <c r="AH2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -636,7 +642,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,10 +430,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" t="s"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +488,11 @@
       <c r="AJ2" t="s">
         <v>17</v>
       </c>
+      <c r="AL2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -602,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -640,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -682,7 +682,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -701,6 +701,7 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -94,13 +94,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,121 +438,121 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
-      <c r="AD1" s="1" t="n"/>
-      <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="n"/>
-      <c r="AG1" s="1" t="n"/>
-      <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
-      <c r="AK1" s="1" t="n"/>
-      <c r="AL1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="n"/>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="1" t="n"/>
-      <c r="V2" s="1" t="s">
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="1" t="n"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="1" t="n"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="n"/>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" s="2" t="n"/>
+      <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="1" t="n"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AC2" s="2" t="n"/>
+      <c r="AD2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="1" t="n"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="2" t="n"/>
+      <c r="AF2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" s="1" t="n"/>
-      <c r="AH2" s="1" t="s">
+      <c r="AG2" s="2" t="n"/>
+      <c r="AH2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="1" t="n"/>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI2" s="2" t="n"/>
+      <c r="AJ2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="1" t="n"/>
-      <c r="AL2" s="1" t="s">
+      <c r="AK2" s="2" t="n"/>
+      <c r="AL2" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -126,10 +126,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,79 +483,79 @@
       <c r="AL1" s="2" t="n"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AA2" s="2" t="n"/>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AC2" s="2" t="n"/>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AE2" s="2" t="n"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AG2" s="2" t="n"/>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AI2" s="2" t="n"/>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AK2" s="2" t="n"/>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -560,114 +563,115 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="2" t="n"/>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -555,7 +555,7 @@
         <v>18</v>
       </c>
       <c r="AK2" s="2" t="n"/>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -563,115 +563,114 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="2" t="n"/>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
